--- a/src/ExcelsiorSyncfusion.Tests/ComplexTypeWithCustomEnumerableRender.Test.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/ComplexTypeWithCustomEnumerableRender.Test.verified.xlsx
@@ -150,7 +150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="71.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
